--- a/data/input/vaccine_info.xlsx
+++ b/data/input/vaccine_info.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IETS-PROBOOK04\Documents\GitHub\CovidEconomicEvaluation\data\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8E9080C-8243-4E7B-A65B-FAE104824546}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA6B1F2-F097-4312-8B9B-E632A3B46116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{56578B5D-E507-4147-BA87-29F96495C78B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
   <si>
     <t>vaccine</t>
   </si>
@@ -97,16 +97,39 @@
   </si>
   <si>
     <t>M</t>
+  </si>
+  <si>
+    <t>vaccine_info_scenario</t>
+  </si>
+  <si>
+    <t>base</t>
+  </si>
+  <si>
+    <t>pfizer</t>
+  </si>
+  <si>
+    <t>p_s_a</t>
+  </si>
+  <si>
+    <t>p_s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,15 +155,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -452,89 +480,93 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A3C52B8-9E49-4C85-9B36-E78C2327783D}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D2" sqref="D2:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
       <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="C2">
+      <c r="D2" s="2">
         <v>10000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>21</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>0.94</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -542,34 +574,37 @@
       <c r="K2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="C3">
+      <c r="D3" s="2">
         <v>10000000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>21</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>0.621</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -577,34 +612,37 @@
       <c r="K3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="C4">
+      <c r="D4" s="2">
         <v>9000000</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
         <v>0.66100000000000003</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -612,34 +650,37 @@
       <c r="K4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="C5">
+      <c r="D5" s="2">
         <v>10000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>28</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>0.94099999999999995</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -647,39 +688,279 @@
       <c r="K5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="C6">
+      <c r="D6" s="2">
         <v>7500000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>28</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>0.5</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <f>D2+D3+D4*2+D5+D6</f>
+        <v>55500000</v>
+      </c>
+      <c r="E7">
+        <v>21</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <f>D7*0.9</f>
+        <v>49950000</v>
+      </c>
+      <c r="E8">
+        <v>21</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9">
+        <f>D7*0.1</f>
+        <v>5550000</v>
+      </c>
+      <c r="E9">
+        <v>28</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10">
+        <f>D7*0.8</f>
+        <v>44400000</v>
+      </c>
+      <c r="E10">
+        <v>21</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11">
+        <f>D7*0.1</f>
+        <v>5550000</v>
+      </c>
+      <c r="E11">
+        <v>28</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12">
+        <f>D7*0.1</f>
+        <v>5550000</v>
+      </c>
+      <c r="E12">
+        <v>21</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.621</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
         <v>0</v>
       </c>
     </row>

--- a/data/input/vaccine_info.xlsx
+++ b/data/input/vaccine_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IETS-PROBOOK04\Documents\GitHub\CovidEconomicEvaluation\data\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA6B1F2-F097-4312-8B9B-E632A3B46116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95DA1E91-1780-468D-83D7-3F74E690D459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{56578B5D-E507-4147-BA87-29F96495C78B}"/>
   </bookViews>
@@ -48,24 +48,6 @@
     <t>effectivity</t>
   </si>
   <si>
-    <t>symptomatic_prob_reduction</t>
-  </si>
-  <si>
-    <t>icu_prob_reduction</t>
-  </si>
-  <si>
-    <t>hosp_prob_reduction</t>
-  </si>
-  <si>
-    <t>home_death_reduction</t>
-  </si>
-  <si>
-    <t>hosp_death_reduction</t>
-  </si>
-  <si>
-    <t>icu_death_reduction</t>
-  </si>
-  <si>
     <t>S</t>
   </si>
   <si>
@@ -112,6 +94,24 @@
   </si>
   <si>
     <t>p_s</t>
+  </si>
+  <si>
+    <t>symptomatic_prob_coef</t>
+  </si>
+  <si>
+    <t>icu_prob_coef</t>
+  </si>
+  <si>
+    <t>hosp_prob_coef</t>
+  </si>
+  <si>
+    <t>death_coef_BASE_VALUE</t>
+  </si>
+  <si>
+    <t>death_coef_INF_VALUE</t>
+  </si>
+  <si>
+    <t>death_coef_MAX_VALUE</t>
   </si>
 </sst>
 </file>
@@ -120,7 +120,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -160,10 +160,11 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -480,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A3C52B8-9E49-4C85-9B36-E78C2327783D}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D6"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,26 +492,26 @@
     <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -522,36 +523,36 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="I1" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="J1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="K1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="L1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2">
-        <v>10000000</v>
+        <v>12612612.612612613</v>
       </c>
       <c r="E2">
         <v>21</v>
@@ -560,7 +561,7 @@
         <v>0.94</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -575,30 +576,30 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2">
-        <v>10000000</v>
+        <v>12612612.612612613</v>
       </c>
       <c r="E3">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="F3" s="1">
         <v>0.621</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -613,21 +614,21 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2">
-        <v>9000000</v>
+        <v>11351351.351351351</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -636,7 +637,7 @@
         <v>0.66100000000000003</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -651,21 +652,21 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2">
-        <v>10000000</v>
+        <v>12612612.612612613</v>
       </c>
       <c r="E5">
         <v>28</v>
@@ -674,7 +675,7 @@
         <v>0.94099999999999995</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -689,21 +690,21 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2">
-        <v>7500000</v>
+        <v>9459459.4594594594</v>
       </c>
       <c r="E6">
         <v>28</v>
@@ -712,7 +713,7 @@
         <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -727,22 +728,21 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D7">
-        <f>D2+D3+D4*2+D5+D6</f>
-        <v>55500000</v>
+        <v>70000000</v>
       </c>
       <c r="E7">
         <v>21</v>
@@ -751,7 +751,7 @@
         <v>0.94</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -766,22 +766,21 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D8">
-        <f>D7*0.9</f>
-        <v>49950000</v>
+        <v>63000000</v>
       </c>
       <c r="E8">
         <v>21</v>
@@ -790,7 +789,7 @@
         <v>0.94</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -805,22 +804,21 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D9">
-        <f>D7*0.1</f>
-        <v>5550000</v>
+        <v>7000000</v>
       </c>
       <c r="E9">
         <v>28</v>
@@ -829,7 +827,7 @@
         <v>0.5</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -844,22 +842,21 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D10">
-        <f>D7*0.8</f>
-        <v>44400000</v>
+        <v>56000000</v>
       </c>
       <c r="E10">
         <v>21</v>
@@ -868,7 +865,7 @@
         <v>0.94</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -883,22 +880,21 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D11">
-        <f>D7*0.1</f>
-        <v>5550000</v>
+        <v>7000000</v>
       </c>
       <c r="E11">
         <v>28</v>
@@ -907,7 +903,7 @@
         <v>0.5</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -922,31 +918,30 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D12">
-        <f>D7*0.1</f>
-        <v>5550000</v>
+        <v>7000000</v>
       </c>
       <c r="E12">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="F12" s="1">
         <v>0.621</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -961,10 +956,29 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>